--- a/data/trans_camb/P19C05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P19C05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,35</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; 13,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,96; 10,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,06; 8,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,72; 12,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,57; 2,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,85; 4,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; 9,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,4; 3,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,02; 2,8</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,57%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,74; 146,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,04; 111,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,61; 107,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,98; 78,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,35; 19,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,18; 30,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,44; 63,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,96; 24,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,84; 20,19</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,3; -1,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; -0,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 7,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,54; -1,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,28; 0,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 5,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; -2,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,82; -1,16</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,01%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,11; 57,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,18; -10,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,36; -6,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,07; 52,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,23; -7,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,95; 5,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; 39,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,5; -16,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,26; -8,39</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 3,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 1,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; -1,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 6,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; 0,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,35; -3,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 4,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,17; -0,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; -3,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,97%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,16; 36,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,43; 17,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,61; -9,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 52,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,4; 0,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,45; -25,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 33,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,71; -3,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,18; -25,3</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 3,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; -2,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; -0,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 5,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,23; -2,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,87; -2,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 2,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,18; -3,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,57; -2,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,4%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,63; 24,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,13; -20,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,98; -7,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,51; 35,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,88; -15,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,76; -16,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,63; 19,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,78; -24,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,81; -18,58</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 7,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 2,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 2,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 5,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 0,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,24; 1,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 5,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 0,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 0,95</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,68%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,16%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 73,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,86; 27,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,82; 27,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,25; 40,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,87; 0,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,29; 8,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,05; 45,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,49; 2,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,71; 7,88</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 3,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; -1,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; -1,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 3,99</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; -2,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; -2,64</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; -2,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; -2,54</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,07%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,89%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,27%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,27%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,85%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 26,24</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,01; -8,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,31; -11,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 26,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,33; -17,17</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,68; -17,66</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 22,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,3; -16,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,13; -17,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,78</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-4,08</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 13,36</t>
+          <t>-2,28; 6,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 10,28</t>
+          <t>-8,43; -0,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 8,41</t>
+          <t>-8,19; -0,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 12,08</t>
+          <t>-3,14; 6,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 2,8</t>
+          <t>-10,06; -1,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 4,07</t>
+          <t>-7,47; -0,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 9,2</t>
+          <t>-0,94; 5,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 3,2</t>
+          <t>-8,18; -2,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 2,8</t>
+          <t>-6,74; -1,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-30,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>-29,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,14%</t>
+          <t>-33,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,49%</t>
+          <t>-20,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,29%</t>
+          <t>-32,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-18,57%</t>
+          <t>-24,91%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 146,48</t>
+          <t>-14,28; 54,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 111,76</t>
+          <t>-50,87; -4,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,61; 107,53</t>
+          <t>-47,38; -6,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 78,32</t>
+          <t>-15,49; 40,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,35; 19,94</t>
+          <t>-50,5; -10,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,18; 30,15</t>
+          <t>-36,41; -2,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 63,9</t>
+          <t>-5,47; 36,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,96; 24,3</t>
+          <t>-45,65; -15,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 20,19</t>
+          <t>-37,37; -10,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-6,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 7,68</t>
+          <t>-3,32; 3,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -1,31</t>
+          <t>-5,36; 1,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -0,9</t>
+          <t>-11,04; -2,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 7,76</t>
+          <t>-0,3; 6,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,54; -1,2</t>
+          <t>-7,22; 0,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,68</t>
+          <t>-9,35; -3,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 5,7</t>
+          <t>-0,62; 4,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -2,37</t>
+          <t>-5,17; -0,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -1,16</t>
+          <t>-9,95; -4,06</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-36,3%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-31,45%</t>
+          <t>-44,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,04%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,71%</t>
+          <t>-40,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,21%</t>
+          <t>-18,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-25,01%</t>
+          <t>-43,37%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 57,93</t>
+          <t>-21,16; 36,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,18; -10,18</t>
+          <t>-34,43; 17,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,36; -6,42</t>
+          <t>-73,61; -19,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 52,72</t>
+          <t>-1,69; 52,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,23; -7,9</t>
+          <t>-40,4; 0,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 5,15</t>
+          <t>-53,41; -25,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 39,55</t>
+          <t>-3,97; 33,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,5; -16,15</t>
+          <t>-32,71; -3,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,26; -8,39</t>
+          <t>-64,19; -29,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-6,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 3,99</t>
+          <t>-5,68; 3,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,9</t>
+          <t>-10,79; -2,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -1,18</t>
+          <t>-8,84; -1,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 6,9</t>
+          <t>-3,37; 5,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 0,03</t>
+          <t>-10,23; -2,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -3,37</t>
+          <t>-13,64; -3,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,7</t>
+          <t>-3,46; 2,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,17; -0,44</t>
+          <t>-9,18; -3,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -3,31</t>
+          <t>-10,33; -3,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>-9,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>-44,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-32,41%</t>
+          <t>-33,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-22,42%</t>
+          <t>-36,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,62%</t>
+          <t>-44,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>-40,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-36,97%</t>
+          <t>-40,08%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 36,05</t>
+          <t>-33,63; 24,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 17,14</t>
+          <t>-63,13; -20,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,61; -9,44</t>
+          <t>-52,09; -9,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 52,29</t>
+          <t>-18,51; 35,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 0,84</t>
+          <t>-54,88; -15,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,45; -25,44</t>
+          <t>-74,29; -22,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 33,68</t>
+          <t>-20,63; 19,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,71; -3,16</t>
+          <t>-53,78; -24,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -25,3</t>
+          <t>-63,01; -23,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-1,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 3,04</t>
+          <t>0,52; 7,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,79; -2,79</t>
+          <t>-3,66; 2,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,62; -0,97</t>
+          <t>-3,57; 2,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 5,11</t>
+          <t>-1,38; 5,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -2,27</t>
+          <t>-6,79; 0,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -2,4</t>
+          <t>-6,37; 0,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,75</t>
+          <t>0,64; 5,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,5</t>
+          <t>-4,41; 0,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -2,6</t>
+          <t>-3,91; 0,64</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,24%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-44,79%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-32,2%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-36,84%</t>
+          <t>-22,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-36,45%</t>
+          <t>-17,2%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,49%</t>
+          <t>-14,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-34,4%</t>
+          <t>-11,57%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 24,31</t>
+          <t>3,95; 73,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,13; -20,22</t>
+          <t>-26,86; 27,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,98; -7,29</t>
+          <t>-25,66; 25,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 35,28</t>
+          <t>-8,25; 40,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,88; -15,12</t>
+          <t>-39,87; 0,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,76; -16,98</t>
+          <t>-35,53; 4,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 19,64</t>
+          <t>4,05; 45,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-53,78; -24,72</t>
+          <t>-29,49; 2,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,81; -18,58</t>
+          <t>-25,86; 5,38</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-4,57</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 7,65</t>
+          <t>-0,31; 3,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 2,85</t>
+          <t>-4,65; -1,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,75</t>
+          <t>-6,28; -2,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,52</t>
+          <t>-0,07; 3,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 0,07</t>
+          <t>-6,26; -2,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,08</t>
+          <t>-7,41; -3,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,82</t>
+          <t>0,34; 3,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,31</t>
+          <t>-5,15; -2,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,95</t>
+          <t>-6,07; -3,12</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>-29,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-22,44%</t>
+          <t>-27,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>-31,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-14,68%</t>
+          <t>-25,27%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-8,16%</t>
+          <t>-30,6%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,95; 73,88</t>
+          <t>-2,47; 26,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 27,66</t>
+          <t>-32,01; -8,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 27,02</t>
+          <t>-44,14; -17,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 40,77</t>
+          <t>-0,54; 26,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 0,45</t>
+          <t>-37,33; -17,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 8,33</t>
+          <t>-44,21; -21,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,05; 45,98</t>
+          <t>2,06; 22,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 2,33</t>
+          <t>-32,3; -16,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 7,88</t>
+          <t>-39,28; -22,26</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-3,27</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-4,5</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-4,4</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-3,77</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-3,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 3,38</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; -1,08</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; -1,35</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 3,99</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; -2,52</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; -2,64</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 3,19</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-5,15; -2,37</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; -2,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>10,34%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-21,65%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-24,07%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>13,02%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-27,89%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-27,27%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>11,68%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-25,27%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-25,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 26,24</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-32,01; -8,31</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-34,31; -11,04</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 26,34</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-37,33; -17,17</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-35,68; -17,66</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 22,1</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-32,3; -16,15</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-32,13; -17,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P19C05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 6,86</t>
+          <t>-2,64; 6,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,43; -0,61</t>
+          <t>-8,63; -0,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -0,79</t>
+          <t>-8,28; -0,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 6,14</t>
+          <t>-2,36; 6,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -1,7</t>
+          <t>-10,44; -2,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -0,31</t>
+          <t>-7,45; -0,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 5,38</t>
+          <t>-1,27; 5,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,18; -2,17</t>
+          <t>-8,02; -2,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; -1,54</t>
+          <t>-7,0; -1,56</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 54,08</t>
+          <t>-14,79; 51,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,87; -4,47</t>
+          <t>-49,79; -0,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,38; -6,45</t>
+          <t>-47,11; -4,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 40,88</t>
+          <t>-11,96; 41,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,5; -10,3</t>
+          <t>-51,73; -13,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,41; -2,08</t>
+          <t>-36,82; -1,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 36,7</t>
+          <t>-7,09; 36,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,65; -15,08</t>
+          <t>-44,66; -14,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,37; -10,22</t>
+          <t>-38,02; -10,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 3,99</t>
+          <t>-3,06; 3,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,9</t>
+          <t>-5,28; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -2,21</t>
+          <t>-11,0; -2,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 6,9</t>
+          <t>-0,35; 6,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 0,03</t>
+          <t>-6,82; -0,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -3,4</t>
+          <t>-9,07; -3,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,7</t>
+          <t>-0,9; 4,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; -0,44</t>
+          <t>-5,08; -0,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -4,06</t>
+          <t>-9,24; -3,97</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 36,05</t>
+          <t>-20,15; 31,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 17,14</t>
+          <t>-34,91; 13,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,61; -19,61</t>
+          <t>-71,72; -19,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 52,29</t>
+          <t>-2,53; 47,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 0,84</t>
+          <t>-40,7; 0,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,41; -25,59</t>
+          <t>-52,3; -24,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 33,68</t>
+          <t>-5,65; 34,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,71; -3,16</t>
+          <t>-31,75; -0,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-64,19; -29,72</t>
+          <t>-61,31; -30,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 3,04</t>
+          <t>-5,45; 3,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,79; -2,79</t>
+          <t>-10,19; -2,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -1,22</t>
+          <t>-8,73; -0,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 5,11</t>
+          <t>-3,77; 5,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -2,27</t>
+          <t>-10,31; -2,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,64; -3,23</t>
+          <t>-13,68; -3,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,75</t>
+          <t>-3,42; 2,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,5</t>
+          <t>-9,31; -3,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,33; -3,31</t>
+          <t>-10,34; -3,54</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 24,31</t>
+          <t>-32,36; 28,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,13; -20,22</t>
+          <t>-62,3; -19,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,09; -9,02</t>
+          <t>-50,69; -6,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 35,28</t>
+          <t>-19,37; 36,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,88; -15,12</t>
+          <t>-54,2; -14,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,29; -22,42</t>
+          <t>-75,0; -22,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 19,64</t>
+          <t>-19,76; 20,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,78; -24,72</t>
+          <t>-55,13; -25,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,01; -23,98</t>
+          <t>-64,4; -24,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 7,65</t>
+          <t>0,69; 7,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 2,85</t>
+          <t>-3,61; 2,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 2,6</t>
+          <t>-3,42; 2,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,52</t>
+          <t>-1,98; 5,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 0,07</t>
+          <t>-7,21; -0,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 0,62</t>
+          <t>-6,27; 0,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,82</t>
+          <t>0,63; 5,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,31</t>
+          <t>-4,4; 0,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,64</t>
+          <t>-3,98; 0,69</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,95; 73,88</t>
+          <t>3,73; 72,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 27,66</t>
+          <t>-26,3; 29,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 25,59</t>
+          <t>-25,51; 22,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 40,77</t>
+          <t>-11,75; 39,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 0,45</t>
+          <t>-40,86; -1,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 4,53</t>
+          <t>-37,43; 2,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,05; 45,98</t>
+          <t>4,02; 42,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 2,33</t>
+          <t>-28,95; 3,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 5,38</t>
+          <t>-26,51; 5,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,38</t>
+          <t>-0,6; 3,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -1,08</t>
+          <t>-4,86; -1,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,28; -2,2</t>
+          <t>-6,43; -2,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,99</t>
+          <t>0,14; 3,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -2,52</t>
+          <t>-6,21; -2,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -3,18</t>
+          <t>-7,53; -3,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,19</t>
+          <t>0,42; 3,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -2,37</t>
+          <t>-5,02; -2,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -3,12</t>
+          <t>-6,34; -3,25</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 26,24</t>
+          <t>-4,19; 26,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-32,01; -8,31</t>
+          <t>-33,01; -8,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,14; -17,48</t>
+          <t>-45,19; -17,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 26,34</t>
+          <t>0,86; 26,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,33; -17,17</t>
+          <t>-36,72; -16,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,21; -21,57</t>
+          <t>-45,19; -20,92</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,06; 22,1</t>
+          <t>2,8; 22,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,3; -16,15</t>
+          <t>-32,03; -16,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,28; -22,26</t>
+          <t>-40,98; -22,72</t>
         </is>
       </c>
     </row>
